--- a/media/exim/exam_2.xlsx
+++ b/media/exim/exam_2.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,27 +459,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Mr Aman Kumar Khadka - payment@gmail.com</t>
+          <t>Mr Bijay Kumar Barakoti - sunbi.bijay@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Programming</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
         <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
+        <v>80</v>
+      </c>
+      <c r="E5" t="n">
         <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -509,191 +509,29 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Professional Practices</t>
+          <t>Programming</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
       <c r="D6" t="n">
+        <v>80</v>
+      </c>
+      <c r="E6" t="n">
         <v>20</v>
       </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
       <c r="F6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Website Design and Development</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Mr Raja Thakur - student@ismt.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Programming</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="n">
-        <v>80</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Database Design and development</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Professional Practices</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20</v>
-      </c>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" t="n">
-        <v>80</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Website Design and Development</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
